--- a/python/melhores_resultados_ag.xlsx
+++ b/python/melhores_resultados_ag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>fitness</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>palavras</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>configuracao</t>
         </is>
@@ -485,7 +490,7 @@
         <v>0.8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -503,17 +508,20 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0196763277053833</v>
-      </c>
-      <c r="H2" t="inlineStr">
+        <v>0.02082924842834473</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>['SEND', 'MORE', 'MONEY']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -538,21 +546,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02155375480651855</v>
-      </c>
-      <c r="H3" t="inlineStr">
+        <v>0.02877111434936524</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>['SEND', 'MORE', 'MONEY']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -560,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B4" t="n">
         <v>0.05</v>
@@ -577,21 +588,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02288985252380371</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>0.02569146156311035</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>['SEND', 'MORE', 'MONEY']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -616,21 +630,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0339548110961914</v>
-      </c>
-      <c r="H5" t="inlineStr">
+        <v>0.02707490921020508</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>['SEND', 'MORE', 'MONEY']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -662,14 +679,17 @@
         <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02924699783325195</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['COCA', 'COLA', 'OASIS']</t>
-        </is>
+        <v>0.02914109230041504</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>['EAT', 'THAT', 'APPLE']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -677,7 +697,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B7" t="n">
         <v>0.05</v>
@@ -694,21 +714,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03217689990997315</v>
-      </c>
-      <c r="H7" t="inlineStr">
+        <v>0.03391811847686767</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>['EAT', 'THAT', 'APPLE']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -719,7 +742,7 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -740,14 +763,17 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03341364860534668</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>0.0306349515914917</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>['COCA', 'COLA', 'OASIS']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -755,7 +781,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B9" t="n">
         <v>0.05</v>
@@ -772,21 +798,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03529765605926514</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['PARA', 'AMAPA', 'GOIAS']</t>
-        </is>
+        <v>0.03873336315155029</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>['COCA', 'COLA', 'OASIS']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -797,7 +826,7 @@
         <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -811,21 +840,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03954823017120361</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['DONALD', 'GERALD', 'ROBERT']</t>
-        </is>
+        <v>0.03953649997711182</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>['COCA', 'COLA', 'OASIS']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -857,14 +889,17 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04099316596984863</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>['COCA', 'COLA', 'OASIS']</t>
-        </is>
+        <v>0.04016284942626953</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>['EAT', 'THAT', 'APPLE']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -889,21 +924,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04141898155212402</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>['EAT', 'THAT', 'APPLE']</t>
-        </is>
+        <v>0.03537778854370117</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>['COCA', 'COLA', 'OASIS']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -935,14 +973,17 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03407139778137207</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['EAT', 'THAT', 'APPLE']</t>
-        </is>
+        <v>0.03610329627990723</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>['PARA', 'AMAPA', 'GOIAS']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -953,7 +994,7 @@
         <v>0.8</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -974,14 +1015,17 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03575985431671143</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>['EAT', 'THAT', 'APPLE']</t>
-        </is>
+        <v>0.03675935268402099</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16</v>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>['PARA', 'AMAPA', 'GOIAS']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -992,7 +1036,7 @@
         <v>0.8</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1013,14 +1057,17 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03680696487426758</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>['COCA', 'COLA', 'OASIS']</t>
-        </is>
+        <v>0.03791425228118896</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>['CROSS', 'ROADS', 'DANGER']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1031,7 +1078,7 @@
         <v>0.8</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1052,14 +1099,17 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03711996078491211</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>['PARA', 'AMAPA', 'GOIAS']</t>
-        </is>
+        <v>0.0384714126586914</v>
+      </c>
+      <c r="H16" t="n">
+        <v>50</v>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>['CROSS', 'ROADS', 'DANGER']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1070,7 +1120,7 @@
         <v>0.8</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1091,14 +1141,17 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03812527656555176</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>['CROSS', 'ROADS', 'DANGER']</t>
-        </is>
+        <v>0.04045031070709228</v>
+      </c>
+      <c r="H17" t="n">
+        <v>262</v>
       </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>['DONALD', 'GERALD', 'ROBERT']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1130,14 +1183,17 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0389747142791748</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>['PARA', 'AMAPA', 'GOIAS']</t>
-        </is>
+        <v>0.04057555198669434</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>['EAT', 'THAT', 'APPLE']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1148,7 +1204,7 @@
         <v>0.8</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1169,14 +1225,17 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03961179256439209</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['CROSS', 'ROADS', 'DANGER']</t>
-        </is>
+        <v>0.04136607646942139</v>
+      </c>
+      <c r="H19" t="n">
+        <v>199</v>
       </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>['DONALD', 'GERALD', 'ROBERT']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1184,10 +1243,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1201,21 +1260,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04064843654632568</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['CROSS', 'ROADS', 'DANGER']</t>
-        </is>
+        <v>0.04441888332366943</v>
+      </c>
+      <c r="H20" t="n">
+        <v>114</v>
       </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>['PARA', 'AMAPA', 'GOIAS']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1226,7 +1288,7 @@
         <v>0.8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1240,21 +1302,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04086203575134277</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['DONALD', 'GERALD', 'ROBERT']</t>
-        </is>
+        <v>0.0458751916885376</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t>['PARA', 'AMAPA', 'GOIAS']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1262,10 +1327,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1279,21 +1344,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04118983745574951</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>['DONALD', 'GERALD', 'ROBERT']</t>
-        </is>
+        <v>0.0475982666015625</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
       </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>['CROSS', 'ROADS', 'DANGER']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1301,10 +1369,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1325,14 +1393,17 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05089192390441895</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>['PARA', 'AMAPA', 'GOIAS']</t>
-        </is>
+        <v>0.0489438533782959</v>
+      </c>
+      <c r="H23" t="n">
+        <v>228</v>
       </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>['DONALD', 'GERALD', 'ROBERT']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1364,14 +1435,17 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05183584690093994</v>
-      </c>
-      <c r="H24" t="inlineStr">
+        <v>0.05129337310791016</v>
+      </c>
+      <c r="H24" t="n">
+        <v>37</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>['CROSS', 'ROADS', 'DANGER']</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
@@ -1403,14 +1477,17 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.054984450340271</v>
-      </c>
-      <c r="H25" t="inlineStr">
+        <v>0.05396394729614258</v>
+      </c>
+      <c r="H25" t="n">
+        <v>38</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>['DONALD', 'GERALD', 'ROBERT']</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>{'taxa_crossover': 0.8, 'taxa_mutacao': 0.1, 'metodo_selecao': 'S2', 'tipo_crossover': 'C2', 'metodo_reinsercao': 'R2'}</t>
         </is>
